--- a/Tools/Mine/Interest EMI Comparisons.xlsx
+++ b/Tools/Mine/Interest EMI Comparisons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/anand_nidamanuru_sap_com/Documents/Sync/Paisa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/anand_nidamanuru_sap_com/Documents/Sync/Paisa/Tools/Mine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="11_1E0FEB9CC7811D2D59D25C2685D8B98BF72F29E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00D600E3-4106-5A43-BCBB-2645AE64B20D}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="11_1E0FEB9CC7811D2D59D25C2685D8B98BF72F29E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{074AD9C4-DA5B-3A4D-B024-AE6394033C07}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>100000</v>
+        <v>5000000</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -590,8 +590,8 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <f>7.5/100</f>
-        <v>7.4999999999999997E-2</v>
+        <f>6/100</f>
+        <v>0.06</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -636,7 +636,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <f>B2*(1+B3/B4)^(B4*B5)</f>
-        <v>107713.58657836914</v>
+        <v>22160228.247625794</v>
       </c>
       <c r="F6" s="3">
         <f>FV(F3/F4, F4*F5, -F2 * (3 + F3/2))</f>
